--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-think/CoT_llama_dbpedia_wikidata_results_comparison_think.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-think/CoT_llama_dbpedia_wikidata_results_comparison_think.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>When was Olof Palme shot?</t>
+          <t>In which year was Rachel Stevens born?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['1986-02-28T00:00:00Z']</t>
+          <t>['1978-04-09T00:00:00Z']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>How high is the Yokohama Marine Tower?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
+          <t>['101']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
+          <t>['101']</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,197 +538,197 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Who developed Minecraft?</t>
+          <t>What is the highest mountain in Italy?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
+          <t>['http://www.wikidata.org/entity/Q102174232']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
+          <t>['http://www.wikidata.org/entity/Q3506451']</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>In which year was Rachel Stevens born?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['1978-04-09T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>What is the most frequent cause of death?</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q12152']</t>
+          <t>['5348554000']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['2', 'http://www.wikidata.org/entity/Q100152369', '60', 'http://www.wikidata.org/entity/Q100159', '3', 'http://www.wikidata.org/entity/Q100732653', '2', 'http://www.wikidata.org/entity/Q100973285', '5', 'http://www.wikidata.org/entity/Q101245788', '3', 'http://www.wikidata.org/entity/Q1016605', '1', 'http://www.wikidata.org/entity/Q101874706', '7', 'http://www.wikidata.org/entity/Q101991', '1', 'http://www.wikidata.org/entity/Q102187260', '2', 'http://www.wikidata.org/entity/Q10260689', '7', 'http://www.wikidata.org/entity/Q10264768', '3', 'http://www.wikidata.org/entity/Q1027995', '4', 'http://www.wikidata.org/entity/Q103177', '1', 'http://www.wikidata.org/entity/Q10327699', '2', 'http://www.wikidata.org/entity/Q1033086', '1', 'http://www.wikidata.org/entity/Q1036403', '1', 'http://www.wikidata.org/entity/Q1036604', '92', 'http://www.wikidata.org/entity/Q1036696', '2', 'http://www.wikidata.org/entity/Q1038388', '1', 'http://www.wikidata.org/entity/Q103930508', '1', 'http://www.wikidata.org/entity/Q104179175', '12', 'http://www.wikidata.org/entity/Q104398136', '2', 'http://www.wikidata.org/entity/Q104398177', '1', 'http://www.wikidata.org/entity/Q104439283', '1', 'http://www.wikidata.org/entity/Q104439289', '2', 'http://www.wikidata.org/entity/Q1046469', '2', 'http://www.wikidata.org/entity/Q1047294', '14', 'http://www.wikidata.org/entity/Q1049098', '1', 'http://www.wikidata.org/entity/Q10500739', '1', 'http://www.wikidata.org/entity/Q10503138', '1', 'http://www.wikidata.org/entity/Q105099251', '1', 'http://www.wikidata.org/entity/Q1051223', '1', 'http://www.wikidata.org/entity/Q1052687', '1', 'http://www.wikidata.org/entity/Q105409675', '243', 'http://www.wikidata.org/entity/Q1054718', '2', 'http://www.wikidata.org/entity/Q105532213', '1', 'http://www.wikidata.org/entity/Q105596889', '1', 'http://www.wikidata.org/entity/Q10565914', '9', 'http://www.wikidata.org/entity/Q105688', '1', 'http://www.wikidata.org/entity/Q1056901', '1', 'http://www.wikidata.org/entity/Q105756559', '1', 'http://www.wikidata.org/entity/Q105987834', '1', 'http://www.wikidata.org/entity/Q1059938', '1', 'http://www.wikidata.org/entity/Q106080621', '1', 'http://www.wikidata.org/entity/Q106429181', '3', 'http://www.wikidata.org/entity/Q106435186', '1', 'http://www.wikidata.org/entity/Q1064483', '20', 'http://www.wikidata.org/entity/Q106466398', '29', 'http://www.wikidata.org/entity/Q1064904', '4', 'http://www.wikidata.org/entity/Q10658304', '1', 'http://www.wikidata.org/entity/Q106586503', '3', 'http://www.wikidata.org/entity/Q10659178', '1', 'http://www.wikidata.org/entity/Q106596238', '1', 'http://www.wikidata.org/entity/Q1066061', '10', 'http://www.wikidata.org/entity/Q106606576', '1', 'http://www.wikidata.org/entity/Q106607530', '1', 'http://www.wikidata.org/entity/Q106628153', '1', 'http://www.wikidata.org/entity/Q106673346', '1', 'http://www.wikidata.org/entity/Q106775117', '1', 'http://www.wikidata.org/entity/Q10686316', '1', 'http://www.wikidata.org/entity/Q106893405', '1', 'http://www.wikidata.org/entity/Q1069785', '5', 'http://www.wikidata.org/entity/Q106990988', '1', 'http://www.wikidata.org/entity/Q107099366', '2', 'http://www.wikidata.org/entity/Q1071761', '1', 'http://www.wikidata.org/entity/Q1072', '23', 'http://www.wikidata.org/entity/Q107231', '1', 'http://www.wikidata.org/entity/Q107300383', '1', 'http://www.wikidata.org/entity/Q107339234', '1', 'http://www.wikidata.org/entity/Q107529288', '3', 'http://www.wikidata.org/entity/Q107538694', '2', 'http://www.wikidata.org/entity/Q1076087', '3', 'http://www.wikidata.org/entity/Q107611912', '1', 'http://www.wikidata.org/entity/Q107746751', '4', 'http://www.wikidata.org/entity/Q107746941', '1', 'http://www.wikidata.org/entity/Q107747250', '67', 'http://www.wikidata.org/entity/Q1077603', '47', 'http://www.wikidata.org/entity/Q1078765', '1', 'http://www.wikidata.org/entity/Q107973730', '1', 'http://www.wikidata.org/entity/Q107992235', '1', 'http://www.wikidata.org/entity/Q108057830', '289', 'http://www.wikidata.org/entity/Q10806', '18', 'http://www.wikidata.org/entity/Q10855380', '1', 'http://www.wikidata.org/entity/Q10859', '1', 'http://www.wikidata.org/entity/Q108733201', '7', 'http://www.wikidata.org/entity/Q10876841', '1', 'http://www.wikidata.org/entity/Q1088030', '1', 'http://www.wikidata.org/entity/Q1088057', '3', 'http://www.wikidata.org/entity/Q1088072', '10', 'http://www.wikidata.org/entity/Q1088156', '1', 'http://www.wikidata.org/entity/Q108827523', '1', 'http://www.wikidata.org/entity/Q1088364', '1', 'http://www.wikidata.org/entity/Q108839664', '1', 'http://www.wikidata.org/entity/Q108858651', '1', 'http://www.wikidata.org/entity/Q10889305', '6', 'http://www.wikidata.org/entity/Q109217482', '3', 'http://www.wikidata.org/entity/Q109321784', '4', 'http://www.wikidata.org/entity/Q109321821', '3', 'http://www.wikidata.org/entity/Q109325008', '1', 'http://www.wikidata.org/entity/Q109351227', '1', 'http://www.wikidata.org/entity/Q109450234', '1', 'http://www.wikidata.org/entity/Q109585401', '2', 'http://www.wikidata.org/entity/Q109829552', '1', 'http://www.wikidata.org/entity/Q10992004', '1', 'http://www.wikidata.org/entity/Q109987699', '1', 'http://www.wikidata.org/entity/Q109989825', '1', 'http://www.wikidata.org/entity/Q109990505', '1', 'http://www.wikidata.org/entity/Q109996898', '1', 'http://www.wikidata.org/entity/Q109997374', '2', 'http://www.wikidata.org/entity/Q109997596', '1', 'http://www.wikidata.org/entity/Q109998769', '1', 'http://www.wikidata.org/entity/Q109998902', '1', 'http://www.wikidata.org/entity/Q109999749', '1', 'http://www.wikidata.org/entity/Q110002438', '1', 'http://www.wikidata.org/entity/Q110008159', '3', 'http://www.wikidata.org/entity/Q110008460', '1', 'http://www.wikidata.org/entity/Q110008591', '1', 'http://www.wikidata.org/entity/Q110008760', '2', 'http://www.wikidata.org/entity/Q110009271', '1', 'http://www.wikidata.org/entity/Q110009766', '1', 'http://www.wikidata.org/entity/Q110009773', '1', 'http://www.wikidata.org/entity/Q110009783', '2', 'http://www.wikidata.org/entity/Q110011329', '1', 'http://www.wikidata.org/entity/Q110011427', '1', 'http://www.wikidata.org/entity/Q110011515', '2', 'http://www.wikidata.org/entity/Q110013548', '1', 'http://www.wikidata.org/entity/Q110013840', '1', 'http://www.wikidata.org/entity/Q110014484', '2', 'http://www.wikidata.org/entity/Q110014981', '1', 'http://www.wikidata.org/entity/Q110015409', '1', 'http://www.wikidata.org/entity/Q110015802', '1', 'http://www.wikidata.org/entity/Q110016006', '1', 'http://www.wikidata.org/entity/Q110016436', '1', 'http://www.wikidata.org/entity/Q110016600', '1', 'http://www.wikidata.org/entity/Q110017928', '1', 'http://www.wikidata.org/entity/Q110020247', '2', 'http://www.wikidata.org/entity/Q110021817', '2', 'http://www.wikidata.org/entity/Q110022506', '1', 'http://www.wikidata.org/entity/Q110060485', '1', 'http://www.wikidata.org/entity/Q110081047', '2', 'http://www.wikidata.org/entity/Q110206531', '1', 'http://www.wikidata.org/entity/Q110218068', '5', 'http://www.wikidata.org/entity/Q110312928', '3', 'http://www.wikidata.org/entity/Q110315', '1', 'http://www.wikidata.org/entity/Q110393976', '4', 'http://www.wikidata.org/entity/Q110419572', '7', 'http://www.wikidata.org/entity/Q110493745', '1', 'http://www.wikidata.org/entity/Q110591990', '1188', 'http://www.wikidata.org/entity/Q11081', '895', 'http://www.wikidata.org/entity/Q11085', '1', 'http://www.wikidata.org/entity/Q11086612', '2', 'http://www.wikidata.org/entity/Q11088', '1', 'http://www.wikidata.org/entity/Q110930434', '2', 'http://www.wikidata.org/entity/Q110999040', '6', 'http://www.wikidata.org/entity/Q1110041', '2', 'http://www.wikidata.org/entity/Q111015315', '4', 'http://www.wikidata.org/entity/Q111034471', '22', 'http://www.wikidata.org/entity/Q11107713', '1', 'http://www.wikidata.org/entity/Q111383714', '3', 'http://www.wikidata.org/entity/Q111978909', '2', 'http://www.wikidata.org/entity/Q111986723', '1', 'http://www.wikidata.org/entity/Q112161631', '13', 'http://www.wikidata.org/entity/Q11244', '1', 'http://www.wikidata.org/entity/Q112626802', '1', 'http://www.wikidata.org/entity/Q11265641', '2', 'http://www.wikidata.org/entity/Q112670', '1', 'http://www.wikidata.org/entity/Q112832919', '2', 'http://www.wikidata.org/entity/Q1128440', '2', 'http://www.wikidata.org/entity/Q1128595', '1', 'http://www.wikidata.org/entity/Q11287760', '3', 'http://www.wikidata.org/entity/Q11288021', '1', 'http://www.wikidata.org/entity/Q112895284', '1', 'http://www.wikidata.org/entity/Q1129007', '2', 'http://www.wikidata.org/entity/Q1129105', '1', 'http://www.wikidata.org/entity/Q1129338', '1', 'http://www.wikidata.org/entity/Q1130192', '6', 'http://www.wikidata.org/entity/Q1130519', '1', 'http://www.wikidata.org/entity/Q1131786', '1', 'http://www.wikidata.org/entity/Q1132653', '1', 'http://www.wikidata.org/entity/Q113332663', '2', 'http://www.wikidata.org/entity/Q113484936', '1', 'http://www.wikidata.org/entity/Q113532925', '7', 'http://www.wikidata.org/entity/Q113585182', '1', 'http://www.wikidata.org/entity/Q11361295', '1', 'http://www.wikidata.org/entity/Q1136456', '5', 'http://www.wikidata.org/entity/Q1136935', '5', 'http://www.wikidata.org/entity/Q1137468', '1', 'http://www.wikidata.org/entity/Q11375731', '6', 'http://www.wikidata.org/entity/Q1137767', '10', 'http://www.wikidata.org/entity/Q1138580', '31', 'http://www.wikidata.org/entity/Q1138590', '25', 'http://www.wikidata.org/entity/Q11388929', '6', 'http://www.wikidata.org/entity/Q11396408', '8', 'http://www.wikidata.org/entity/Q1139665', '6', 'http://www.wikidata.org/entity/Q1139684', '3', 'http://www.wikidata.org/entity/Q1139973', '5', 'http://www.wikidata.org/entity/Q114079743', '1', 'http://www.wikidata.org/entity/Q114085', '2', 'http://www.wikidata.org/entity/Q11410802', '1', 'http://www.wikidata.org/entity/Q11419481', '1', 'http://www.wikidata.org/entity/Q11429744', '15', 'http://www.wikidata.org/entity/Q1143025', '3', 'http://www.wikidata.org/entity/Q1144039', '4', 'http://www.wikidata.org/entity/Q11442711', '1', 'http://www.wikidata.org/entity/Q114443936', '2', 'http://www.wikidata.org/entity/Q1144913', '3', 'http://www.wikidata.org/entity/Q114496632', '35', 'http://www.wikidata.org/entity/Q1145315', '247', 'http://www.wikidata.org/entity/Q1145328', '1', 'http://www.wikidata.org/entity/Q114556619', '2', 'http://www.wikidata.org/entity/Q1145668', '2', 'http://www.wikidata.org/entity/Q1145674', '1', 'http://www.wikidata.org/entity/Q11457492', '2', 'http://www.wikidata.org/entity/Q114639536', '1', 'http://www.wikidata.org/entity/Q114754301', '1', 'http://www.wikidata.org/entity/Q11475675', '30', 'http://www.wikidata.org/entity/Q1148337', '1', 'http://www.wikidata.org/entity/Q114849614', '1', 'http://www.wikidata.org/entity/Q11486309', '1', 'http://www.wikidata.org/entity/Q114905986', '37', 'http://www.wikidata.org/entity/Q11490616', '6', 'http://www.wikidata.org/entity/Q11491565', '2', 'http://www.wikidata.org/entity/Q11495186', '141', 'http://www.wikidata.org/entity/Q114953', '1', 'http://www.wikidata.org/entity/Q11498660', '1', 'http://www.wikidata.org/entity/Q11498930', '1', 'http://www.wikidata.org/entity/Q1151752', '1', 'http://www.wikidata.org/entity/Q11519624', '34', 'http://www.wikidata.org/entity/Q1153419', '1', 'http://www.wikidata.org/entity/Q115345739', '1', 'http://www.wikidata.org/entity/Q1154073', '2', 'http://www.wikidata.org/entity/Q11549086', '2', 'http://www.wikidata.org/entity/Q11549517', '1', 'http://www.wikidata.org/entity/Q1155476', '2', 'http://www.wikidata.org/entity/Q115573301', '1', 'http://www.wikidata.org/entity/Q11564544', '17', 'http://www.wikidata.org/entity/Q11567649', '2', 'http://www.wikidata.org/entity/Q115739331', '1', 'http://www.wikidata.org/entity/Q11574756', '1', 'http://www.wikidata.org/entity/Q11590740', '1', 'http://www.wikidata.org/entity/Q115983202', '1', 'http://www.wikidata.org/entity/Q11610626', '1', 'http://www.wikidata.org/entity/Q116246018', '1', 'http://www.wikidata.org/entity/Q11625219', '5', 'http://www.wikidata.org/entity/Q11626343', '1', 'http://www.wikidata.org/entity/Q11626847', '1', 'http://www.wikidata.org/entity/Q116291690', '861', 'http://www.wikidata.org/entity/Q11637534', '1', 'http://www.wikidata.org/entity/Q11637758', '13', 'http://www.wikidata.org/entity/Q1164529', '6', 'http://www.wikidata.org/entity/Q1164685', '1', 'http://www.wikidata.org/entity/Q11663796', '1', 'http://www.wikidata.org/entity/Q1166500', '5', 'http://www.wikidata.org/entity/Q116691303', '5', 'http://www.wikidata.org/entity/Q116749848', '1', 'http://www.wikidata.org/entity/Q116749989', '3', 'http://www.wikidata.org/entity/Q116872540', '2', 'http://www.wikidata.org/entity/Q11688946', '2', 'http://www.wikidata.org/entity/Q116921432', '1', 'http://www.wikidata.org/entity/Q116922421', '15', 'http://www.wikidata.org/entity/Q11694', '1', 'http://www.wikidata.org/entity/Q11696355', '15', 'http://www.wikidata.org/entity/Q11705', '2', 'http://www.wikidata.org/entity/Q117321959', '1', 'http://www.wikidata.org/entity/Q11737205', '3', 'http://www.wikidata.org/entity/Q117383822', '1', 'http://www.wikidata.org/entity/Q117708301', '2', 'http://www.wikidata.org/entity/Q117788923', '2', 'http://www.wikidata.org/entity/Q11791872', '5', 'http://www.wikidata.org/entity/Q117955514', '1', 'http://www.wikidata.org/entity/Q118119763', '8', 'http://www.wikidata.org/entity/Q118120034', '1', 'http://www.wikidata.org/entity/Q118121085', '1', 'http://www.wikidata.org/entity/Q118122457', '1', 'http://www.wikidata.org/entity/Q118124344', '1', 'http://www.wikidata.org/entity/Q118128033', '2', 'http://www.wikidata.org/entity/Q118164250', '1', 'http://www.wikidata.org/entity/Q118173997', '7', 'http://www.wikidata.org/entity/Q118215161', '15', 'http://www.wikidata.org/entity/Q11822042', '2', 'http://www.wikidata.org/entity/Q118221238', '1', 'http://www.wikidata.org/entity/Q118269223', '1', 'http://www.wikidata.org/entity/Q118288956', '13', 'http://www.wikidata.org/entity/Q118322', '1', 'http://www.wikidata.org/entity/Q11835644', '1', 'http://www.wikidata.org/entity/Q118465898', '29', 'http://www.wikidata.org/entity/Q1184752', '1', 'http://www.wikidata.org/entity/Q11858932', '5', 'http://www.wikidata.org/entity/Q11875820', '4', 'http://www.wikidata.org/entity/Q11877141', '1', 'http://www.wikidata.org/entity/Q118849417', '3', 'http://www.wikidata.org/entity/Q11890853', '2', 'http://www.wikidata.org/entity/Q119094', '4', 'http://www.wikidata.org/entity/Q1191065', '1', 'http://www.wikidata.org/entity/Q1192530', '327', 'http://www.wikidata.org/entity/Q1193870', '2', 'http://www.wikidata.org/entity/Q1194496', '2', 'http://www.wikidata.org/entity/Q1194557', '1', 'http://www.wikidata.org/entity/Q119476003', '1', 'http://www.wikidata.org/entity/Q1194773', '1', 'http://www.wikidata.org/entity/Q11950665', '5', 'http://www.wikidata.org/entity/Q119727363', '1', 'http://www.wikidata.org/entity/Q1197786', '127', 'http://www.wikidata.org/entity/Q1198391', '1', 'http://www.wikidata.org/entity/Q120041493', '5', 'http://www.wikidata.org/entity/Q12021165', '1', 'http://www.wikidata.org/entity/Q120225760', '1', 'http://www.wikidata.org/entity/Q12029', '1', 'http://www.wikidata.org/entity/Q12033088', '1', 'http://www.wikidata.org/entity/Q12051532', '10583', 'http://www.wikidata.org/entity/Q12078', '581', 'http://www.wikidata.org/entity/Q12090', '138', 'http://www.wikidata.org/entity/Q1209150', '69', 'http://www.wikidata.org/entity/Q1209744', '144', 'http://www.wikidata.org/entity/Q121041', '1', 'http://www.wikidata.org/entity/Q121248874', '7', 'http://www.wikidata.org/entity/Q12125', '1', 'http://www.wikidata.org/entity/Q12131', '4434', 'http://www.wikidata.org/entity/Q12136', '1', 'http://www.wikidata.org/entity/Q121484355', '10960', 'http://www.wikidata.org/entity/Q12152', '5', 'http://www.wikidata.org/entity/Q121548654', '354', 'http://www.wikidata.org/entity/Q12156', '1', 'http://www.wikidata.org/entity/Q121650', '9', 'http://www.wikidata.org/entity/Q12167', '17', 'http://www.wikidata.org/entity/Q1216998', '2', 'http://www.wikidata.org/entity/Q12174', '1', 'http://www.wikidata.org/entity/Q121858093', '1', 'http://www.wikidata.org/entity/Q1219102', '5421', 'http://www.wikidata.org/entity/Q12192', '28', 'http://www.wikidata.org/entity/Q12195', '59', 'http://www.wikidata.org/entity/Q12199', '3502', 'http://www.wikidata.org/entity/Q12202', '3008', 'http://www.wikidata.org/entity/Q12204', '888', 'http://www.wikidata.org/entity/Q12206', '454', 'http://www.wikidata.org/entity/Q12214', '4', 'http://www.wikidata.org/entity/Q12242142', '37', 'http://www.wikidata.org/entity/Q12252367', '1', 'http://www.wikidata.org/entity/Q122700456', '1', 'http://www.wikidata.org/entity/Q12273322', '1', 'http://www.wikidata.org/entity/Q12284921', '2', 'http://www.wikidata.org/entity/Q12287716', '1', 'http://www.wikidata.org/entity/Q12298859', '1', 'http://www.wikidata.org/entity/Q123018830', '1', 'http://www.wikidata.org/entity/Q12311704', '1', 'http://www.wikidata.org/entity/Q123117935', '1', 'http://www.wikidata.org/entity/Q123165466', '1', 'http://www.wikidata.org/entity/Q123282671', '1', 'http://www.wikidata.org/entity/Q12340078', '1', 'http://www.wikidata.org/entity/Q123466438', '1', 'http://www.wikidata.org/entity/Q123692449', '1', 'http://www.wikidata.org/entity/Q123857735', '1', 'http://www.wikidata.org/entity/Q12404125', '1', 'http://www.wikidata.org/entity/Q12406886', '1', 'http://www.wikidata.org/entity/Q12408460', '1', 'http://www.wikidata.org/entity/Q124098888', '76', 'http://www.wikidata.org/entity/Q124292', '1', 'http://www.wikidata.org/entity/Q124335063', '1', 'http://www.wikidata.org/entity/Q124336578', '1', 'http://www.wikidata.org/entity/Q124343466', '6', 'http://www.wikidata.org/entity/Q124391411', '15', 'http://www.wikidata.org/entity/Q124407', '6', 'http://www.wikidata.org/entity/Q124490', '1', 'http://www.wikidata.org/entity/Q124734', '4', 'http://www.wikidata.org/entity/Q1249453', '3', 'http://www.wikidata.org/entity/Q124967717', '1', 'http://www.wikidata.org/entity/Q125333650', '140', 'http://www.wikidata.org/entity/Q125367', '8', 'http://www.wikidata.org/entity/Q12548232', '1', 'http://www.wikidata.org/entity/Q125535233', '1', 'http://www.wikidata.org/entity/Q12569389', '3', 'http://www.wikidata.org/entity/Q12570226', '6', 'http://www.wikidata.org/entity/Q125855273', '8', 'http://www.wikidata.org/entity/Q1259359', '1', 'http://www.wikidata.org/entity/Q125952015', '1', 'http://www.wikidata.org/entity/Q126029253', '1', 'http://www.wikidata.org/entity/Q12614787', '1', 'http://www.wikidata.org/entity/Q1261499', '1', 'http://www.wikidata.org/entity/Q126383394', '2', 'http://www.wikidata.org/entity/Q12643772', '2', 'http://www.wikidata.org/entity/Q1266395', '2', 'http://www.wikidata.org/entity/Q1266890', '1', 'http://www.wikidata.org/entity/Q1268842', '6', 'http://www.wikidata.org/entity/Q1271826', '7', 'http://www.wikidata.org/entity/Q127197', '1', 'http://www.wikidata.org/entity/Q127673787', '1', 'http://www.wikidata.org/entity/Q127724', '34', 'http://www.wikidata.org/entity/Q12796', '1', 'http://www.wikidata.org/entity/Q1283812', '18', 'http://www.wikidata.org/entity/Q1284347', '855', 'http://www.wikidata.org/entity/Q128581', '4', 'http://www.wikidata.org/entity/Q12859063', '2', 'http://www.wikidata.org/entity/Q1286657', '1', 'http://www.wikidata.org/entity/Q1286848', '1', 'http://www.wikidata.org/entity/Q12870', '1', 'http://www.wikidata.org/entity/Q12875438', '21', 'http://www.wikidata.org/entity/Q1288449', '1', 'http://www.wikidata.org/entity/Q1290446', '17', 'http://www.wikidata.org/entity/Q1290616', '10', 'http://www.wikidata.org/entity/Q129104', '1', 'http://www.wikidata.org/entity/Q1292038', '252', 'http://www.wikidata.org/entity/Q129279', '1', 'http://www.wikidata.org/entity/Q130285524', '2', 'http://www.wikidata.org/entity/Q1303061', '1', 'http://www.wikidata.org/entity/Q130366662', '81', 'http://www.wikidata.org/entity/Q13046587', '1', 'http://www.wikidata.org/entity/Q130656617', '3', 'http://www.wikidata.org/entity/Q130754', '2', 'http://www.wikidata.org/entity/Q1309431', '1', 'http://www.wikidata.org/entity/Q1311978', '1', 'http://www.wikidata.org/entity/Q1312196', '1', 'http://www.wikidata.org/entity/Q1312311', '1', 'http://www.wikidata.org/entity/Q1312381', '1', 'http://www.wikidata.org/entity/Q1312486', '2', 'http://www.wikidata.org/entity/Q131297', '88', 'http://www.wikidata.org/entity/Q131311', '2', 'http://www.wikidata.org/entity/Q1315727', '149', 'http://www.wikidata.org/entity/Q131742', '16', 'http://www.wikidata.org/entity/Q131749', '1', 'http://www.wikidata.org/entity/Q131755', '1', 'http://www.wikidata.org/entity/Q1318384', '1', 'http://www.wikidata.org/entity/Q1324130', '1', 'http://www.wikidata.org/entity/Q1324592', '1', 'http://www.wikidata.org/entity/Q132568', '2', 'http://www.wikidata.org/entity/Q1326943', '225', 'http://www.wikidata.org/entity/Q132781', '7', 'http://www.wikidata.org/entity/Q1328805', '1', 'http://www.wikidata.org/entity/Q132971', '19', 'http://www.wikidata.org/entity/Q1329925', '5', 'http://www.wikidata.org/entity/Q133076', '8', 'http://www.wikidata.org/entity/Q133087', '1', 'http://www.wikidata.org/entity/Q133125', '4', 'http://www.wikidata.org/entity/Q1331380', '16', 'http://www.wikidata.org/entity/Q1331905', '32', 'http://www.wikidata.org/entity/Q133212', '12', 'http://www.wikidata.org/entity/Q133244', '4', 'http://www.wikidata.org/entity/Q1334541', '17', 'http://www.wikidata.org/entity/Q133462', '48', 'http://www.wikidata.org/entity/Q13365776', '1', 'http://www.wikidata.org/entity/Q133772', '706', 'http://www.wikidata.org/entity/Q133780', '2', 'http://www.wikidata.org/entity/Q1339243', '16', 'http://www.wikidata.org/entity/Q1339474', '1', 'http://www.wikidata.org/entity/Q1339539', '2', 'http://www.wikidata.org/entity/Q1339973', '3', 'http://www.wikidata.org/entity/Q134003', '9', 'http://www.wikidata.org/entity/Q13405491', '1', 'http://www.wikidata.org/entity/Q1342132', '9', 'http://www.wikidata.org/entity/Q1342425', '2', 'http://www.wikidata.org/entity/Q134301', '1', 'http://www.wikidata.org/entity/Q13431749', '1', 'http://www.wikidata.org/entity/Q1344610', '3', 'http://www.wikidata.org/entity/Q1345671', '1', 'http://www.wikidata.org/entity/Q134574', '26', 'http://www.wikidata.org/entity/Q1346016', '29', 'http://www.wikidata.org/entity/Q1346149', '56', 'http://www.wikidata.org/entity/Q134649', '4', 'http://www.wikidata.org/entity/Q134859', '36', 'http://www.wikidata.org/entity/Q1348910', '1', 'http://www.wikidata.org/entity/Q1349821', '1', 'http://www.wikidata.org/entity/Q135010', '6', 'http://www.wikidata.org/entity/Q1350326', '10', 'http://www.wikidata.org/entity/Q135162', '4', 'http://www.wikidata.org/entity/Q13522706', '3', 'http://www.wikidata.org/entity/Q13538850', '8', 'http://www.wikidata.org/entity/Q13587273', '1', 'http://www.wikidata.org/entity/Q13587764', '1', 'http://www.wikidata.org/entity/Q1359898', '4', 'http://www.wikidata.org/entity/Q1362483', '2', 'http://www.wikidata.org/entity/Q136312', '2', 'http://www.wikidata.org/entity/Q1363195', '2', 'http://www.wikidata.org/entity/Q13641482', '2', 'http://www.wikidata.org/entity/Q1364270', '38', 'http://www.wikidata.org/entity/Q1364787', '5', 'http://www.wikidata.org/entity/Q1365309', '1', 'http://www.wikidata.org/entity/Q1366475', '2', 'http://www.wikidata.org/entity/Q1366544', '1', 'http://www.wikidata.org/entity/Q1366695', '971', 'http://www.wikidata.org/entity/Q1368943', '2', 'http://www.wikidata.org/entity/Q1369020', '1', 'http://www.wikidata.org/entity/Q1370346', '1', 'http://www.wikidata.org/entity/Q1393463', '2', 'http://www.wikidata.org/entity/Q140067', '9', 'http://www.wikidata.org/entity/Q1402016', '2', 'http://www.wikidata.org/entity/Q1405631', '1', 'http://www.wikidata.org/entity/Q1406803', '1', 'http://www.wikidata.org/entity/Q1412866', '1', 'http://www.wikidata.org/entity/Q1412895', '3', 'http://www.wikidata.org/entity/Q141440', '4', 'http://www.wikidata.org/entity/Q1415275', '1', 'http://www.wikidata.org/entity/Q14161888', '19', 'http://www.wikidata.org/entity/Q1419347', '1', 'http://www.wikidata.org/entity/Q1421697', '3', 'http://www.wikidata.org/entity/Q1423167', '1', 'http://www.wikidata.org/entity/Q1424612', '1', 'http://www.wikidata.org/entity/Q14246267', '3', 'http://www.wikidata.org/entity/Q1427114', '3', 'http://www.wikidata.org/entity/Q1428132', '1', 'http://www.wikidata.org/entity/Q142824', '2', 'http://www.wikidata.org/entity/Q1429863', '1', 'http://www.wikidata.org/entity/Q1430466', '8', 'http://www.wikidata.org/entity/Q1434045', '2', 'http://www.wikidata.org/entity/Q1434446', '1', 'http://www.wikidata.org/entity/Q1434575', '1', 'http://www.wikidata.org/entity/Q14373', '1', 'http://www.wikidata.org/entity/Q1441019', '10', 'http://www.wikidata.org/entity/Q1442421', '15', 'http://www.wikidata.org/entity/Q1444550', '266', 'http://www.wikidata.org/entity/Q14467705', '1', 'http://www.wikidata.org/entity/Q1470833', '4', 'http://www.wikidata.org/entity/Q1472', '1', 'http://www.wikidata.org/entity/Q1472233', '2', 'http://www.wikidata.org/entity/Q1475448', '1', 'http://www.wikidata.org/entity/Q1476027', '4', 'http://www.wikidata.org/entity/Q1477', '400', 'http://www.wikidata.org/entity/Q147778', '2', 'http://www.wikidata.org/entity/Q1483214', '21', 'http://www.wikidata.org/entity/Q1485', '1', 'http://www.wikidata.org/entity/Q14859934', '2', 'http://www.wikidata.org/entity/Q14901436', '1', 'http://www.wikidata.org/entity/Q1490242', '1', 'http://www.wikidata.org/entity/Q1495162', '13', 'http://www.wikidata.org/entity/Q1495657', '1', 'http://www.wikidata.org/entity/Q1495661', '1', 'http://www.wikidata.org/entity/Q1495687', '1', 'http://www.wikidata.org/entity/Q1497481', '2', 'http://www.wikidata.org/entity/Q1504713', '13', 'http://www.wikidata.org/entity/Q15054664', '1', 'http://www.wikidata.org/entity/Q1505538', '1', 'http://www.wikidata.org/entity/Q1506572', '69', 'http://www.wikidata.org/entity/Q15120872', '2', 'http://www.wikidata.org/entity/Q15124212', '1', 'http://www.wikidata.org/entity/Q151350', '3', 'http://www.wikidata.org/entity/Q1514280', '6', 'http://www.wikidata.org/entity/Q15169167', '1', 'http://www.wikidata.org/entity/Q1519482', '12', 'http://www.wikidata.org/entity/Q1520311', '5', 'http://www.wikidata.org/entity/Q152081', '1', 'http://www.wikidata.org/entity/Q15212263', '1', 'http://www.wikidata.org/entity/Q152142', '118', 'http://www.wikidata.org/entity/Q152234', '3', 'http://www.wikidata.org/entity/Q1522772', '1', 'http://www.wikidata.org/entity/Q15228259', '1', 'http://www.wikidata.org/entity/Q152409', '62', 'http://www.wikidata.org/entity/Q1527888', '1', 'http://www.wikidata.org/entity/Q152982', '6', 'http://www.wikidata.org/entity/Q1532447', '16', 'http://www.wikidata.org/entity/Q15326', '2', 'http://www.wikidata.org/entity/Q1535461', '1', 'http://www.wikidata.org/entity/Q1536074', '2', 'http://www.wikidata.org/entity/Q153813', '1', 'http://www.wikidata.org/entity/Q153861', '4', 'http://www.wikidata.org/entity/Q15401586', '30', 'http://www.wikidata.org/entity/Q1541975', '1', 'http://www.wikidata.org/entity/Q154278', '1', 'http://www.wikidata.org/entity/Q15443105', '1', 'http://www.wikidata.org/entity/Q154494', '1', 'http://www.wikidata.org/entity/Q154709', '1', 'http://www.wikidata.org/entity/Q154865', '6', 'http://www.wikidata.org/entity/Q154869', '166', 'http://www.wikidata.org/entity/Q154874', '2', 'http://www.wikidata.org/entity/Q154878', '3', 'http://www.wikidata.org/entity/Q154882', '4', 'http://www.wikidata.org/entity/Q1550225', '1', 'http://www.wikidata.org/entity/Q155098', '1', 'http://www.wikidata.org/entity/Q15522511', '1', 'http://www.wikidata.org/entity/Q156', '20', 'http://www.wikidata.org/entity/Q156103', '1', 'http://www.wikidata.org/entity/Q15636221', '1', 'http://www.wikidata.org/entity/Q156537', '2', 'http://www.wikidata.org/entity/Q156554', '1', 'http://www.wikidata.org/entity/Q15660578', '1', 'http://www.wikidata.org/entity/Q1568932', '12', 'http://www.wikidata.org/entity/Q1569563', '4', 'http://www.wikidata.org/entity/Q1570161', '3', 'http://www.wikidata.org/entity/Q15729017', '1', 'http://www.wikidata.org/entity/Q1573307', '1', 'http://www.wikidata.org/entity/Q1573486', '1906', 'http://www.wikidata.org/entity/Q15747939', '2', 'http://www.wikidata.org/entity/Q157661', '5', 'http://www.wikidata.org/entity/Q15787', '116', 'http://www.wikidata.org/entity/Q15809226', '140', 'http://www.wikidata.org/entity/Q15824243', '1', 'http://www.wikidata.org/entity/Q15842456', '4', 'http://www.wikidata.org/entity/Q1586014', '3', 'http://www.wikidata.org/entity/Q15874682', '2', 'http://www.wikidata.org/entity/Q158856', '11', 'http://www.wikidata.org/entity/Q1588755', '14', 'http://www.wikidata.org/entity/Q15896523', '2', 'http://www.wikidata.org/entity/Q159557', '5', 'http://www.wikidata.org/entity/Q15965523', '1', 'http://www.wikidata.org/entity/Q15974799', '2', 'http://www.wikidata.org/entity/Q1598200', '1', 'http://www.wikidata.org/entity/Q1600050', '64', 'http://www.wikidata.org/entity/Q160105', '475', 'http://www.wikidata.org/entity/Q160649', '1', 'http://www.wikidata.org/entity/Q1607632', '1', 'http://www.wikidata.org/entity/Q1613885', '4', 'http://www.wikidata.org/entity/Q161393', '3', 'http://www.wikidata.org/entity/Q16140854', '1', 'http://www.wikidata.org/entity/Q161472', '3', 'http://www.wikidata.org/entity/Q1615518', '1', 'http://www.wikidata.org/entity/Q1617658', '3', 'http://www.wikidata.org/entity/Q161801', '1', 'http://www.wikidata.org/entity/Q1620193', '1', 'http://www.wikidata.org/entity/Q1620196', '1', 'http://www.wikidata.org/entity/Q16204221', '3', 'http://www.wikidata.org/entity/Q16209950', '1', 'http://www.wikidata.org/entity/Q16211048', '24', 'http://www.wikidata.org/entity/Q16244733', '4', 'http://www.wikidata.org/entity/Q162555', '1', 'http://www.wikidata.org/entity/Q16261959', '1', 'http://www.wikidata.org/entity/Q1632678', '4', 'http://www.wikidata.org/entity/Q16335379', '1', 'http://www.wikidata.org/entity/Q1634609', '1', 'http://www.wikidata.org/entity/Q1636800', '27', 'http://www.wikidata.org/entity/Q163865', '1', 'http://www.wikidata.org/entity/Q16392', '1', 'http://www.wikidata.org/entity/Q16399', '1', 'http://www.wikidata.org/entity/Q1640780', '2', 'http://www.wikidata.org/entity/Q1641132', '1', 'http://www.wikidata.org/entity/Q1642263', '2', 'http://www.wikidata.org/entity/Q1643625', '4', 'http://www.wikidata.org/entity/Q164655', '1', 'http://www.wikidata.org/entity/Q164727', '1', 'http://www.wikidata.org/entity/Q16483', '1', 'http://www.wikidata.org/entity/Q1648484', '2', 'http://www.wikidata.org/entity/Q16487761', '65', 'http://www.wikidata.org/entity/Q1649580', '1', 'http://www.wikidata.org/entity/Q16496265', '1', 'http://www.wikidata.org/entity/Q16503490', '1', 'http://www.wikidata.org/entity/Q16517810', '3', 'http://www.wikidata.org/entity/Q165328', '7', 'http://www.wikidata.org/entity/Q16534051', '9', 'http://www.wikidata.org/entity/Q165947', '41', 'http://www.wikidata.org/entity/Q166019', '1', 'http://www.wikidata.org/entity/Q1661402', '29', 'http://www.wikidata.org/entity/Q166231', '1', 'http://www.wikidata.org/entity/Q166376', '3', 'http://www.wikidata.org/entity/Q166626', '1', 'http://www.wikidata.org/entity/Q1666683', '1', 'http://www.wikidata.org/entity/Q16682617', '5', 'http://www.wikidata.org/entity/Q1671502', '11', 'http://www.wikidata.org/entity/Q167191', '2', 'http://www.wikidata.org/entity/Q16775468', '3', 'http://www.wikidata.org/entity/Q167903', '6', 'http://www.wikidata.org/entity/Q16821614', '4', 'http://www.wikidata.org/entity/Q168247', '1', 'http://www.wikidata.org/entity/Q16826107', '1', 'http://www.wikidata.org/entity/Q1682965', '45', 'http://www.wikidata.org/entity/Q16861372', '2', 'http://www.wikidata.org/entity/Q16861407', '9', 'http://www.wikidata.org/entity/Q16863179', '1', 'http://www.wikidata.org/entity/Q16874544', '1', 'http://www.wikidata.org/entity/Q16879474', '11', 'http://www.wikidata.org/entity/Q168800', '87', 'http://www.wikidata.org/entity/Q168805', '102', 'http://www.wikidata.org/entity/Q168983', '8', 'http://www.wikidata.org/entity/Q16918965', '1', 'http://www.wikidata.org/entity/Q16931480', '5', 'http://www.wikidata.org/entity/Q16931844', '11', 'http://www.wikidata.org/entity/Q1693598', '1', 'http://www.wikidata.org/entity/Q16952026', '1', 'http://www.wikidata.org/entity/Q16954835', '1', 'http://www.wikidata.org/entity/Q169950', '3', 'http://www.wikidata.org/entity/Q170082', '83', 'http://www.wikidata.org/entity/Q170518', '1', 'http://www.wikidata.org/entity/Q17074273', '1', 'http://www.wikidata.org/entity/Q17083190', '2', 'http://www.wikidata.org/entity/Q17087776', '4', 'http://www.wikidata.org/entity/Q17089549', '1', 'http://www.wikidata.org/entity/Q17091279', '17', 'htt</t>
+          <t>['5348554000']</t>
         </is>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['101']</t>
+          <t>['http://www.wikidata.org/entity/Q9215']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/Q1207989-1e73dc51-4c38-1dfb-f2a3-86ee215bc9fd']</t>
+          <t>['http://www.wikidata.org/entity/Q9215']</t>
         </is>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+          <t>['1735-10-30T00:00:00Z']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/Q937-61A00029-3304-45D0-AF63-38B5696AAAF5', 'http://www.wikidata.org/entity/statement/Q937-99734d53-47c3-cc4b-580e-784486517d39', 'http://www.wikidata.org/entity/statement/Q937-e3d28962-43ab-c2d8-e4d6-8284b893dff9']</t>
+          <t>['1735-10-30T00:00:00Z']</t>
         </is>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>What is Donald Trump's main business?</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2462124']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Who has Tom Cruise been married to?</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>When was John Adams born?</t>
+          <t>Give me all companies in the advertising industry.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['1735-10-30T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q101461338', 'http://www.wikidata.org/entity/Q102262104', 'http://www.wikidata.org/entity/Q104092039', 'http://www.wikidata.org/entity/Q104754670', 'http://www.wikidata.org/entity/Q104871599', 'http://www.wikidata.org/entity/Q105946950', 'http://www.wikidata.org/entity/Q106239285', 'http://www.wikidata.org/entity/Q106641854', 'http://www.wikidata.org/entity/Q109867618', 'http://www.wikidata.org/entity/Q110409287', 'http://www.wikidata.org/entity/Q110463710', 'http://www.wikidata.org/entity/Q111208612', 'http://www.wikidata.org/entity/Q111317674', 'http://www.wikidata.org/entity/Q111550358', 'http://www.wikidata.org/entity/Q112242085', 'http://www.wikidata.org/entity/Q113053908', 'http://www.wikidata.org/entity/Q113366946', 'http://www.wikidata.org/entity/Q1134747', 'http://www.wikidata.org/entity/Q1138662', 'http://www.wikidata.org/entity/Q114467462', 'http://www.wikidata.org/entity/Q1152240', 'http://www.wikidata.org/entity/Q116163711', 'http://www.wikidata.org/entity/Q116247751', 'http://www.wikidata.org/entity/Q117359492', 'http://www.wikidata.org/entity/Q118315835', 'http://www.wikidata.org/entity/Q1189945', 'http://www.wikidata.org/entity/Q119659108', 'http://www.wikidata.org/entity/Q11975486', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q122293401', 'http://www.wikidata.org/entity/Q122678804', 'http://www.wikidata.org/entity/Q125547869', 'http://www.wikidata.org/entity/Q127387727', 'http://www.wikidata.org/entity/Q130487350', 'http://www.wikidata.org/entity/Q130637712', 'http://www.wikidata.org/entity/Q1318049', 'http://www.wikidata.org/entity/Q1407504', 'http://www.wikidata.org/entity/Q1427937', 'http://www.wikidata.org/entity/Q1485545', 'http://www.wikidata.org/entity/Q1501630', 'http://www.wikidata.org/entity/Q1546160', 'http://www.wikidata.org/entity/Q15526612', 'http://www.wikidata.org/entity/Q15991231', 'http://www.wikidata.org/entity/Q16486916', 'http://www.wikidata.org/entity/Q1666928', 'http://www.wikidata.org/entity/Q16827098', 'http://www.wikidata.org/entity/Q16960364', 'http://www.wikidata.org/entity/Q16968519', 'http://www.wikidata.org/entity/Q16984554', 'http://www.wikidata.org/entity/Q16995438', 'http://www.wikidata.org/entity/Q17022874', 'http://www.wikidata.org/entity/Q17051632', 'http://www.wikidata.org/entity/Q17083636', 'http://www.wikidata.org/entity/Q17084604', 'http://www.wikidata.org/entity/Q17156801', 'http://www.wikidata.org/entity/Q17509911', 'http://www.wikidata.org/entity/Q17513408', 'http://www.wikidata.org/entity/Q17762567', 'http://www.wikidata.org/entity/Q18149240', 'http://www.wikidata.org/entity/Q1827515', 'http://www.wikidata.org/entity/Q18378670', 'http://www.wikidata.org/entity/Q18689243', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q1914308', 'http://www.wikidata.org/entity/Q19384638', 'http://www.wikidata.org/entity/Q215639', 'http://www.wikidata.org/entity/Q22080419', 'http://www.wikidata.org/entity/Q2295361', 'http://www.wikidata.org/entity/Q22977946', 'http://www.wikidata.org/entity/Q24931012', 'http://www.wikidata.org/entity/Q25303143', 'http://www.wikidata.org/entity/Q2633520', 'http://www.wikidata.org/entity/Q26389854', 'http://www.wikidata.org/entity/Q2799043', 'http://www.wikidata.org/entity/Q28127172', 'http://www.wikidata.org/entity/Q3100842', 'http://www.wikidata.org/entity/Q32860542', 'http://www.wikidata.org/entity/Q3339159', 'http://www.wikidata.org/entity/Q33400141', 'http://www.wikidata.org/entity/Q3374416', 'http://www.wikidata.org/entity/Q345760', 'http://www.wikidata.org/entity/Q3490485', 'http://www.wikidata.org/entity/Q37715030', 'http://www.wikidata.org/entity/Q380102', 'http://www.wikidata.org/entity/Q39055182', 'http://www.wikidata.org/entity/Q39468429', 'http://www.wikidata.org/entity/Q4042981', 'http://www.wikidata.org/entity/Q4052145', 'http://www.wikidata.org/entity/Q4068094', 'http://www.wikidata.org/entity/Q41487145', 'http://www.wikidata.org/entity/Q4398717', 'http://www.wikidata.org/entity/Q4647740', 'http://www.wikidata.org/entity/Q4674596', 'http://www.wikidata.org/entity/Q4685837', 'http://www.wikidata.org/entity/Q4686869', 'http://www.wikidata.org/entity/Q4780797', 'http://www.wikidata.org/entity/Q48818116', 'http://www.wikidata.org/entity/Q5027876', 'http://www.wikidata.org/entity/Q50413919', 'http://www.wikidata.org/entity/Q5099325', 'http://www.wikidata.org/entity/Q5148560', 'http://www.wikidata.org/entity/Q5159054', 'http://www.wikidata.org/entity/Q5171655', 'http://www.wikidata.org/entity/Q5241692', 'http://www.wikidata.org/entity/Q5244137', 'http://www.wikidata.org/entity/Q5276228', 'http://www.wikidata.org/entity/Q5297711', 'http://www.wikidata.org/entity/Q5306018', 'http://www.wikidata.org/entity/Q5315592', 'http://www.wikidata.org/entity/Q5387144', 'http://www.wikidata.org/entity/Q53995495', 'http://www.wikidata.org/entity/Q54001625', 'http://www.wikidata.org/entity/Q5437006', 'http://www.wikidata.org/entity/Q5500039', 'http://www.wikidata.org/entity/Q5513790', 'http://www.wikidata.org/entity/Q55985886', 'http://www.wikidata.org/entity/Q5674337', 'http://www.wikidata.org/entity/Q58096291', 'http://www.wikidata.org/entity/Q5872693', 'http://www.wikidata.org/entity/Q59186556', 'http://www.wikidata.org/entity/Q59386608', 'http://www.wikidata.org/entity/Q5973348', 'http://www.wikidata.org/entity/Q60984347', 'http://www.wikidata.org/entity/Q6275230', 'http://www.wikidata.org/entity/Q63043104', 'http://www.wikidata.org/entity/Q6319098', 'http://www.wikidata.org/entity/Q64437945', 'http://www.wikidata.org/entity/Q64627233', 'http://www.wikidata.org/entity/Q65043997', 'http://www.wikidata.org/entity/Q65057672', 'http://www.wikidata.org/entity/Q6537721', 'http://www.wikidata.org/entity/Q6556550', 'http://www.wikidata.org/entity/Q6693139', 'http://www.wikidata.org/entity/Q6717514', 'http://www.wikidata.org/entity/Q6784006', 'http://www.wikidata.org/entity/Q67871918', 'http://www.wikidata.org/entity/Q6944890', 'http://www.wikidata.org/entity/Q7053610', 'http://www.wikidata.org/entity/Q7106584', 'http://www.wikidata.org/entity/Q7111460', 'http://www.wikidata.org/entity/Q7247909', 'http://www.wikidata.org/entity/Q734779', 'http://www.wikidata.org/entity/Q7359254', 'http://www.wikidata.org/entity/Q7376897', 'http://www.wikidata.org/entity/Q7389749', 'http://www.wikidata.org/entity/Q7431857', 'http://www.wikidata.org/entity/Q7507830', 'http://www.wikidata.org/entity/Q7659050', 'http://www.wikidata.org/entity/Q7662029', 'http://www.wikidata.org/entity/Q7670791', 'http://www.wikidata.org/entity/Q7692144', 'http://www.wikidata.org/entity/Q7761583', 'http://www.wikidata.org/entity/Q7832454', 'http://www.wikidata.org/entity/Q7832475', 'http://www.wikidata.org/entity/Q7947769', 'http://www.wikidata.org/entity/Q8030011', 'http://www.wikidata.org/entity/Q8037270', 'http://www.wikidata.org/entity/Q8062804', 'http://www.wikidata.org/entity/Q83988050', 'http://www.wikidata.org/entity/Q85800351', 'http://www.wikidata.org/entity/Q96400234', 'http://www.wikidata.org/entity/Q99333588']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['1735-10-30T00:00:00Z']</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>how much is the total population of european union?</t>
+          <t>Which university did Angela Merkel attend?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['447706209']</t>
+          <t>['http://www.wikidata.org/entity/Q154804']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['447706209']</t>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
         </is>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Who developed the video game World of Warcraft?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q178824']</t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q178824']</t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Where was JFK assassinated?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3896131']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3896131']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,37 +758,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>What is the second highest mountain on Earth?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q5159490']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q81924287']</t>
         </is>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>how much is the elevation of Düsseldorf Airport ?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['147']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['147']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,21 +798,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>In which country is Mecca located?</t>
+          <t>how much is the elevation of Düsseldorf Airport ?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q851']</t>
+          <t>['147']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q851']</t>
+          <t>['http://www.wikidata.org/entity/statement/Q58226-84579277-733B-4991-9C96-23E228467B9B']</t>
         </is>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -838,17 +838,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>Who wrote the book The Pillars of the Earth?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q138578']</t>
+          <t>['http://www.wikidata.org/entity/Q210669']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q138578']</t>
+          <t>['http://www.wikidata.org/entity/Q210669']</t>
         </is>
       </c>
       <c r="D21" t="b">
@@ -858,17 +858,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q138578']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q138578']</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -878,37 +878,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>Give me all Swedish holidays.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['http://www.wikidata.org/entity/Q1348730', 'http://www.wikidata.org/entity/Q39864', 'http://www.wikidata.org/entity/Q40317']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
         </is>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>In which countries can you pay using the West African CFA franc?</t>
+          <t>What is the net income of Apple?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
+          <t>['96995000000']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
+          <t>['96995000000']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['38274618']</t>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['38274618']</t>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,37 +938,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Which holidays are celebrated around the world?</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q21163268', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q124422802', 'http://www.wikidata.org/entity/Q18465013', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1651570', 'http://www.wikidata.org/entity/Q2564633', 'http://www.wikidata.org/entity/Q333016', 'http://www.wikidata.org/entity/Q61359735', 'http://www.wikidata.org/entity/Q72318', 'http://www.wikidata.org/entity/Q744159', 'http://www.wikidata.org/entity/Q751738', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q116978568', 'http://www.wikidata.org/entity/Q2859605', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q115369110', 'http://www.wikidata.org/entity/Q115369980', 'http://www.wikidata.org/entity/Q115377287', 'http://www.wikidata.org/entity/Q21697589', 'http://www.wikidata.org/entity/Q122069654', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q11406184', 'http://www.wikidata.org/entity/Q11643728', 'http://www.wikidata.org/entity/Q20044441', 'http://www.wikidata.org/entity/Q28685931', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q11387821', 'http://www.wikidata.org/entity/Q11436695', 'http://www.wikidata.org/entity/Q11501518', 'http://www.wikidata.org/entity/Q11502138', 'http://www.wikidata.org/entity/Q11512398', 'http://www.wikidata.org/entity/Q11590440', 'http://www.wikidata.org/entity/Q11604982', 'http://www.wikidata.org/entity/Q6455253', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q124005660', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q13258770', 'http://www.wikidata.org/entity/Q2838743', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q123004384', 'http://www.wikidata.org/entity/Q4546230', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q1137351', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1186410', 'http://www.wikidata.org/entity/Q1355051', 'http://www.wikidata.org/entity/Q1355833', 'http://www.wikidata.org/entity/Q1359602', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1361489', 'http://www.wikidata.org/entity/Q17218111', 'http://www.wikidata.org/entity/Q483226', 'http://www.wikidata.org/entity/Q82405', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499494', 'http://www.wikidata.org/entity/Q113650760', 'http://www.wikidata.org/entity/Q11368765', 'http://www.wikidata.org/entity/Q113811579', 'http://www.wikidata.org/entity/Q113813231', 'http://www.wikidata.org/entity/Q113828978', 'http://www.wikidata.org/entity/Q113830063', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q113849016', 'http://www.wikidata.org/entity/Q113860611', 'http://www.wikidata.org/entity/Q113860644', 'http://www.wikidata.org/entity/Q113861194', 'http://www.wikidata.org/entity/Q113882354', 'http://www.wikidata.org/entity/Q113884368', 'http://www.wikidata.org/entity/Q113901976', 'http://www.wikidata.org/entity/Q113904662', 'http://www.wikidata.org/entity/Q1139536', 'http://www.wikidata.org/entity/Q113955599', 'http://www.wikidata.org/entity/Q113955616', 'http://www.wikidata.org/entity/Q113955620', 'http://www.wikidata.org/entity/Q113955692', 'http://www.wikidata.org/entity/Q113961851', 'http://www.wikidata.org/entity/Q113961888', 'http://www.wikidata.org/entity/Q113961932', 'http://www.wikidata.org/entity/Q114028189', 'http://www.wikidata.org/entity/Q114046091', 'http://www.wikidata.org/entity/Q114056617', 'http://www.wikidata.org/entity/Q114057278', 'http://www.wikidata.org/entity/Q114059225', 'http://www.wikidata.org/entity/Q114243677', 'http://www.wikidata.org/entity/Q114454471', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q114582556', 'http://www.wikidata.org/entity/Q114588676', 'http://www.wikidata.org/entity/Q114604', 'http://www.wikidata.org/entity/Q114947458', 'http://www.wikidata.org/entity/Q114948159', 'http://www.wikidata.org/entity/Q114996688', 'http://www.wikidata.org/entity/Q114997174', 'http://www.wikidata.org/entity/Q115341348', 'http://www.wikidata.org/entity/Q115367992', 'http://www.wikidata.org/entity/Q115397386', 'http://www.wikidata.org/entity/Q115517924', 'http://www.wikidata.org/entity/Q115764515', 'http://www.wikidata.org/entity/Q115801523', 'http://www.wikidata.org/entity/Q115912774', 'http://www.wikidata.org/entity/Q115990472', 'http://www.wikidata.org/entity/Q116414186', 'http://www.wikidata.org/entity/Q116690653', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117695225', 'http://www.wikidata.org/entity/Q117751349', 'http://www.wikidata.org/entity/Q117795094', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q118128483', 'http://www.wikidata.org/entity/Q11921906', 'http://www.wikidata.org/entity/Q11938851', 'http://www.wikidata.org/entity/Q119496586', 'http://www.wikidata.org/entity/Q11993043', 'http://www.wikidata.org/entity/Q1207931', 'http://www.wikidata.org/entity/Q1207932', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q121886956', 'http://www.wikidata.org/entity/Q122068698', 'http://www.wikidata.org/entity/Q122188018', 'http://www.wikidata.org/entity/Q12228863', 'http://www.wikidata.org/entity/Q12228866', 'http://www.wikidata.org/entity/Q12228868', 'http://www.wikidata.org/entity/Q12228876', 'http://www.wikidata.org/entity/Q12228884', 'http://www.wikidata.org/entity/Q12252186', 'http://www.wikidata.org/entity/Q12277858', 'http://www.wikidata.org/entity/Q122832546', 'http://www.wikidata.org/entity/Q12314502', 'http://www.wikidata.org/entity/Q123337193', 'http://www.wikidata.org/entity/Q123592992', 'http://www.wikidata.org/entity/Q12361577', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q12376028', 'http://www.wikidata.org/entity/Q12378350', 'http://www.wikidata.org/entity/Q124036138', 'http://www.wikidata.org/entity/Q12407929', 'http://www.wikidata.org/entity/Q12411505', 'http://www.wikidata.org/entity/Q124367042', 'http://www.wikidata.org/entity/Q124504910', 'http://www.wikidata.org/entity/Q124564384', 'http://www.wikidata.org/entity/Q124612831', 'http://www.wikidata.org/entity/Q124615758', 'http://www.wikidata.org/entity/Q124619352', 'http://www.wikidata.org/entity/Q124620804', 'http://www.wikidata.org/entity/Q124620822', 'http://www.wikidata.org/entity/Q124707699', 'http://www.wikidata.org/entity/Q124820083', 'http://www.wikidata.org/entity/Q124830280', 'http://www.wikidata.org/entity/Q124857570', 'http://www.wikidata.org/entity/Q124858688', 'http://www.wikidata.org/entity/Q124858953', 'http://www.wikidata.org/entity/Q125149734', 'http://www.wikidata.org/entity/Q125205121', 'http://www.wikidata.org/entity/Q1254268', 'http://www.wikidata.org/entity/Q125510673', 'http://www.wikidata.org/entity/Q125511630', 'http://www.wikidata.org/entity/Q125521675', 'http://www.wikidata.org/entity/Q125521758', 'http://www.wikidata.org/entity/Q125555445', 'http://www.wikidata.org/entity/Q125566609', 'http://www.wikidata.org/entity/Q125577561', 'http://www.wikidata.org/entity/Q125592462', 'http://www.wikidata.org/entity/Q12560060', 'http://www.wikidata.org/entity/Q125688458', 'http://www.wikidata.org/entity/Q125688603', 'http://www.wikidata.org/entity/Q125700972', 'http://www.wikidata.org/entity/Q125704427', 'http://www.wikidata.org/entity/Q125747483', 'http://www.wikidata.org/entity/Q125749644', 'http://www.wikidata.org/entity/Q125758800', 'http://www.wikidata.org/entity/Q125759229', 'http://www.wikidata.org/entity/Q125845551', 'http://www.wikidata.org/entity/Q12584835', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q125867175', 'http://www.wikidata.org/entity/Q125867458', 'http://www.wikidata.org/entity/Q125867756', 'http://www.wikidata.org/entity/Q125867888', 'http://www.wikidata.org/entity/Q125869488', 'http://www.wikidata.org/entity/Q125879646', 'http://www.wikidata.org/entity/Q125879891', 'http://www.wikidata.org/entity/Q125883649', 'http://www.wikidata.org/entity/Q125883847', 'http://www.wikidata.org/entity/Q125890530', 'http://www.wikidata.org/entity/Q125890753', 'http://www.wikidata.org/entity/Q125891443', 'http://www.wikidata.org/entity/Q125891720', 'http://www.wikidata.org/entity/Q125895110', 'http://www.wikidata.org/entity/Q125895155', 'http://www.wikidata.org/entity/Q125899181', 'http://www.wikidata.org/entity/Q125899513', 'http://www.wikidata.org/entity/Q125901134', 'http://www.wikidata.org/entity/Q125903138', 'http://www.wikidata.org/entity/Q125910729', 'http://www.wikidata.org/entity/Q125910806', 'http://www.wikidata.org/entity/Q125911055', 'http://www.wikidata.org/entity/Q125911072', 'http://www.wikidata.org/entity/Q125914666', 'http://www.wikidata.org/entity/Q125914885', 'http://www.wikidata.org/entity/Q125921693', 'http://www.wikidata.org/entity/Q125922831', 'http://www.wikidata.org/entity/Q125922882', 'http://www.wikidata.org/entity/Q125926636', 'http://www.wikidata.org/entity/Q125932740', 'http://www.wikidata.org/entity/Q125936101', 'http://www.wikidata.org/entity/Q125936683', 'http://www.wikidata.org/entity/Q125956876', 'http://www.wikidata.org/entity/Q125959131', 'http://www.wikidata.org/entity/Q125965703', 'http://www.wikidata.org/entity/Q125966437', 'http://www.wikidata.org/entity/Q125966992', 'http://www.wikidata.org/entity/Q125968806', 'http://www.wikidata.org/entity/Q125969610', 'http://www.wikidata.org/entity/Q125970539', 'http://www.wikidata.org/entity/Q125984409', 'http://www.wikidata.org/entity/Q125984492', 'http://www.wikidata.org/entity/Q125994583', 'http://www.wikidata.org/entity/Q125997034', 'http://www.wikidata.org/entity/Q125998688', 'http://www.wikidata.org/entity/Q125998803', 'http://www.wikidata.org/entity/Q125998897', 'http://www.wikidata.org/entity/Q125999072', 'http://www.wikidata.org/entity/Q12599950', 'http://www.wikidata.org/entity/Q126010095', 'http://www.wikidata.org/entity/Q126010128', 'http://www.wikidata.org/entity/Q126028447', 'http://www.wikidata.org/entity/Q126028546', 'http://www.wikidata.org/entity/Q126032653', 'http://www.wikidata.org/entity/Q126126323', 'http://www.wikidata.org/entity/Q126126778', 'http://www.wikidata.org/entity/Q12613371', 'http://www.wikidata.org/entity/Q12629515', 'http://www.wikidata.org/entity/Q126325524', 'http://www.wikidata.org/entity/Q126361854', 'http://www.wikidata.org/entity/Q126362969', 'http://www.wikidata.org/entity/Q126371412', 'http://www.wikidata.org/entity/Q126371457', 'http://www.wikidata.org/entity/Q126371864', 'http://www.wikidata.org/entity/Q126371886', 'http://www.wikidata.org/entity/Q126372368', 'http://www.wikidata.org/entity/Q126372458', 'http://www.wikidata.org/entity/Q126372576', 'http://www.wikidata.org/entity/Q126415038', 'http://www.wikidata.org/entity/Q126456102', 'http://www.wikidata.org/entity/Q126477003', 'http://www.wikidata.org/entity/Q126477086', 'http://www.wikidata.org/entity/Q126477151', 'http://www.wikidata.org/entity/Q126477162', 'http://www.wikidata.org/entity/Q126478091', 'http://www.wikidata.org/entity/Q126478228', 'http://www.wikidata.org/entity/Q126511431', 'http://www.wikidata.org/entity/Q126513767', 'http://www.wikidata.org/entity/Q126593634', 'http://www.wikidata.org/entity/Q12663413', 'http://www.wikidata.org/entity/Q126666887', 'http://www.wikidata.org/entity/Q126709387', 'http://www.wikidata.org/entity/Q126721902', 'http://www.wikidata.org/entity/Q126726117', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/e</t>
+          <t>['http://www.wikidata.org/entity/Q16']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
+          <t>['http://www.wikidata.org/entity/Q16']</t>
         </is>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>How tall is Michael Jordan?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q57577']</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q57577']</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -998,17 +998,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="D29" t="b">
@@ -1018,77 +1018,77 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Which musician wrote the most books?</t>
+          <t>Who wrote the Game of Thrones theme?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q113669']</t>
+          <t>['http://www.wikidata.org/entity/Q57577']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['6', 'http://www.wikidata.org/entity/Q113669']</t>
+          <t>['http://www.wikidata.org/entity/Q57577']</t>
         </is>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Who discovered Ceres?</t>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q14280']</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q14280']</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>What is the currency of the Czech Republic?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3808']</t>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3808']</t>
+          <t>['http://www.wikidata.org/entity/statement/q213-04F5421B-4168-49B2-B523-9907480D5AE0', 'http://www.wikidata.org/entity/statement/Q213-53e9423a-41fd-159d-be0d-bc8cb74e730c']</t>
         </is>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>How many programming languages are there?</t>
+          <t>Which musician wrote the most books?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['1811']</t>
+          <t>['http://www.wikidata.org/entity/Q113669']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['1487']</t>
+          <t>['http://www.wikidata.org/entity/Q6069405']</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,37 +1118,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>How much is the population of mexico city ?</t>
+          <t>What is the capital of Canada?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://www.wikidata.org/entity/Q1930']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://www.wikidata.org/entity/Q3876']</t>
         </is>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Who created Batman?</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -1158,21 +1158,101 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
+          <t>How much is the population of mexico city ?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Who created Batman?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>['34112.5']</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['34112.5']</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>What movies does Jesse Eisenberg play in?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+        </is>
+      </c>
+      <c r="D40" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>To which countries does the Himalayan mountain system extend?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+        </is>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
